--- a/Price_Study/Spain/Plots/Summary_Raspberry.xlsx
+++ b/Price_Study/Spain/Plots/Summary_Raspberry.xlsx
@@ -438,7 +438,7 @@
         <v>5.155529335332706</v>
       </c>
       <c r="F2">
-        <v>5.072494518564681</v>
+        <v>5.040405773919509</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,7 +458,7 @@
         <v>5.816603052797736</v>
       </c>
       <c r="F3">
-        <v>6.05</v>
+        <v>5.904719908125438</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -478,7 +478,7 @@
         <v>6.219868229362246</v>
       </c>
       <c r="F4">
-        <v>6.46</v>
+        <v>6.508801240497247</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -498,7 +498,7 @@
         <v>41</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -518,7 +518,7 @@
         <v>7.754257368628767</v>
       </c>
       <c r="F6">
-        <v>7.23</v>
+        <v>7.245857245321472</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -538,7 +538,7 @@
         <v>5.826560536801509</v>
       </c>
       <c r="F7">
-        <v>5.862569657511251</v>
+        <v>5.809812808723561</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -578,7 +578,7 @@
         <v>0.9344216723656188</v>
       </c>
       <c r="F9">
-        <v>0.836369479778631</v>
+        <v>0.8528893171779233</v>
       </c>
     </row>
   </sheetData>

--- a/Price_Study/Spain/Plots/Summary_Raspberry.xlsx
+++ b/Price_Study/Spain/Plots/Summary_Raspberry.xlsx
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.502455556976911</v>
+        <v>4.342025122965357</v>
       </c>
       <c r="D2">
         <v>5.607525680470014</v>
@@ -438,7 +438,7 @@
         <v>5.155529335332706</v>
       </c>
       <c r="F2">
-        <v>5.040405773919509</v>
+        <v>4.976228284629165</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.328630543886356</v>
+        <v>5.091834212275085</v>
       </c>
       <c r="D3">
         <v>6.277415476188198</v>
@@ -458,7 +458,7 @@
         <v>5.816603052797736</v>
       </c>
       <c r="F3">
-        <v>5.904719908125438</v>
+        <v>5.73961504660474</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6.240788750486349</v>
+        <v>5.700275837390827</v>
       </c>
       <c r="D4">
         <v>6.827418096368399</v>
@@ -478,7 +478,7 @@
         <v>6.219868229362246</v>
       </c>
       <c r="F4">
-        <v>6.508801240497247</v>
+        <v>6.492324295674023</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>42</v>
@@ -498,7 +498,7 @@
         <v>41</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.410181798069306</v>
+        <v>5.141864658058016</v>
       </c>
       <c r="D7">
         <v>6.117503522452246</v>
@@ -538,7 +538,7 @@
         <v>5.826560536801509</v>
       </c>
       <c r="F7">
-        <v>5.809812808723561</v>
+        <v>5.746000290563352</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -558,7 +558,7 @@
         <v>4.220876693802421</v>
       </c>
       <c r="F8">
-        <v>4.391335999255249</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1.168934040229542</v>
+        <v>1.058498506621991</v>
       </c>
       <c r="D9">
         <v>1.167959067398115</v>
@@ -578,7 +578,7 @@
         <v>0.9344216723656188</v>
       </c>
       <c r="F9">
-        <v>0.8528893171779233</v>
+        <v>0.8716001340945519</v>
       </c>
     </row>
   </sheetData>
